--- a/data/trans_orig/P41D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C60BA6D-B7A3-4BFC-AFDC-0AFB62B70747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0AB090D-42EA-4388-B020-E8674AD65B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CAF3C07-88A4-45D3-B3A0-76B510E70C69}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F64E5811-C5F7-496D-A578-7299A5BF839C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <t>16,86%</t>
   </si>
   <si>
-    <t>67,49%</t>
+    <t>67,65%</t>
   </si>
   <si>
     <t>42,44%</t>
@@ -113,16 +113,16 @@
     <t>25,75%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
   </si>
   <si>
     <t>83,14%</t>
   </si>
   <si>
-    <t>32,51%</t>
+    <t>32,35%</t>
   </si>
   <si>
     <t>57,56%</t>
@@ -134,10 +134,10 @@
     <t>74,25%</t>
   </si>
   <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -149,13 +149,13 @@
     <t>28,89%</t>
   </si>
   <si>
-    <t>71,1%</t>
+    <t>69,77%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>47,97%</t>
+    <t>49,06%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -164,61 +164,61 @@
     <t>71,11%</t>
   </si>
   <si>
-    <t>28,9%</t>
+    <t>30,23%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>52,03%</t>
+    <t>50,94%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>40,9%</t>
+    <t>45,12%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>59,1%</t>
+    <t>54,88%</t>
   </si>
   <si>
     <t>68,51%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB0DB62-6B04-4268-9DB4-0499BD3008A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06477A14-1EE6-47BF-94FF-8E3BCD79E8C6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0AB090D-42EA-4388-B020-E8674AD65B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{387342EA-A2EE-4CD3-B894-8A0DD4140F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F64E5811-C5F7-496D-A578-7299A5BF839C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCC6141D-CB6E-4D2A-8934-0044F9135AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06477A14-1EE6-47BF-94FF-8E3BCD79E8C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9459772-A4EC-4B02-97B5-2146CB81419C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{387342EA-A2EE-4CD3-B894-8A0DD4140F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2360A9DB-8C1B-42E7-A38A-6032FEBB25D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCC6141D-CB6E-4D2A-8934-0044F9135AC8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDA0EB13-2AD9-4747-9212-364AAE4623F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <t>16,86%</t>
   </si>
   <si>
-    <t>67,65%</t>
+    <t>67,49%</t>
   </si>
   <si>
     <t>42,44%</t>
@@ -113,16 +113,16 @@
     <t>25,75%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
   </si>
   <si>
     <t>83,14%</t>
   </si>
   <si>
-    <t>32,35%</t>
+    <t>32,51%</t>
   </si>
   <si>
     <t>57,56%</t>
@@ -134,10 +134,10 @@
     <t>74,25%</t>
   </si>
   <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -149,13 +149,13 @@
     <t>28,89%</t>
   </si>
   <si>
-    <t>69,77%</t>
+    <t>71,1%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>49,06%</t>
+    <t>47,97%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -164,61 +164,61 @@
     <t>71,11%</t>
   </si>
   <si>
-    <t>30,23%</t>
+    <t>28,9%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>50,94%</t>
+    <t>52,03%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>45,12%</t>
+    <t>40,9%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>54,88%</t>
+    <t>59,1%</t>
   </si>
   <si>
     <t>68,51%</t>
   </si>
   <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9459772-A4EC-4B02-97B5-2146CB81419C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D965FA-FB69-456B-BB10-0F13AA9B32AB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2360A9DB-8C1B-42E7-A38A-6032FEBB25D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1745D51D-2074-4B1D-9444-EFCFD2B46B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDA0EB13-2AD9-4747-9212-364AAE4623F8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{99B44EFA-3BDE-4B4D-BC97-9BBE97FE9121}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -98,46 +98,46 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -146,79 +146,79 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D965FA-FB69-456B-BB10-0F13AA9B32AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3DAFE5-3097-4C0F-A294-B273C6811675}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>18</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>18</v>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1256</v>
+        <v>1307</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1687</v>
+        <v>1508</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>22</v>
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>2943</v>
+        <v>2815</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>24</v>
@@ -954,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>6196</v>
+        <v>5886</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>27</v>
@@ -969,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>2288</v>
+        <v>2147</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>29</v>
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>8484</v>
+        <v>8033</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
@@ -1005,7 +1005,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>7452</v>
+        <v>7193</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>18</v>
@@ -1020,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>3975</v>
+        <v>3655</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -1035,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="N9" s="7">
-        <v>11427</v>
+        <v>10848</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>18</v>
@@ -1073,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2355</v>
+        <v>2063</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>36</v>
@@ -1088,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2355</v>
+        <v>2063</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>38</v>
@@ -1109,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>6472</v>
+        <v>6115</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>16</v>
@@ -1124,7 +1124,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>5798</v>
+        <v>5129</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>41</v>
@@ -1139,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>12270</v>
+        <v>11244</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>43</v>
@@ -1160,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>6472</v>
+        <v>6115</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -1175,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>8153</v>
+        <v>7192</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>18</v>
@@ -1190,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>14625</v>
+        <v>13307</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>18</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1256</v>
+        <v>1307</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -1228,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>4042</v>
+        <v>3571</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
@@ -1243,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>5298</v>
+        <v>4879</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1264,7 +1264,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>12668</v>
+        <v>12001</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>53</v>
@@ -1279,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>8796</v>
+        <v>7973</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>55</v>
@@ -1294,7 +1294,7 @@
         <v>19</v>
       </c>
       <c r="N14" s="7">
-        <v>21464</v>
+        <v>19974</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>58</v>
@@ -1315,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="7">
-        <v>13924</v>
+        <v>13308</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>18</v>
@@ -1330,7 +1330,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="7">
-        <v>12838</v>
+        <v>11544</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>18</v>
@@ -1345,7 +1345,7 @@
         <v>24</v>
       </c>
       <c r="N15" s="7">
-        <v>26762</v>
+        <v>24853</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>18</v>
